--- a/data/gihun/dataset/경북출산율모델.xlsx
+++ b/data/gihun/dataset/경북출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.3638443935926773</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>1311</v>
       </c>
       <c r="F81" t="n">
         <v>76.431</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003852809210844843</v>
+      </c>
       <c r="H81" t="n">
         <v>67.2</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.4351535836177474</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>1172</v>
       </c>
       <c r="F82" t="n">
         <v>76.58199999999999</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003839382487445479</v>
+      </c>
       <c r="H82" t="n">
         <v>67.90000000000001</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.3749098774333093</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>1387</v>
       </c>
       <c r="F83" t="n">
         <v>76.95999999999999</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003825955764046115</v>
+      </c>
       <c r="H83" t="n">
         <v>68.59999999999999</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3422546634225466</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>1233</v>
       </c>
       <c r="F84" t="n">
         <v>77.035</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003812529040646751</v>
+      </c>
       <c r="H84" t="n">
         <v>69.2</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.2788339670468948</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>1578</v>
       </c>
       <c r="F85" t="n">
         <v>77.26300000000001</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003799102317247388</v>
+      </c>
       <c r="H85" t="n">
         <v>70.3</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3456445993031359</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>1435</v>
       </c>
       <c r="F86" t="n">
         <v>77.111</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003785675593848024</v>
+      </c>
       <c r="H86" t="n">
         <v>70.59999999999999</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4175022789425706</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>1097</v>
       </c>
       <c r="F87" t="n">
         <v>77.48999999999999</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.00377224887044866</v>
+      </c>
       <c r="H87" t="n">
         <v>71</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5548327137546468</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>1076</v>
       </c>
       <c r="F88" t="n">
         <v>78.17</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003758822147049296</v>
+      </c>
       <c r="H88" t="n">
         <v>71.2</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.4432989690721649</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>873</v>
       </c>
       <c r="F89" t="n">
         <v>78.39700000000001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003745395423649932</v>
+      </c>
       <c r="H89" t="n">
         <v>71.59999999999999</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.3818525519848771</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>1058</v>
       </c>
       <c r="F90" t="n">
         <v>77.792</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003731968700250568</v>
+      </c>
       <c r="H90" t="n">
         <v>72</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.272280270436386</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>1627</v>
       </c>
       <c r="F91" t="n">
         <v>77.33799999999999</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003718541976851205</v>
+      </c>
       <c r="H91" t="n">
         <v>72.3</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.1930501930501931</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>2331</v>
       </c>
       <c r="F92" t="n">
         <v>77.565</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003705115253451841</v>
+      </c>
       <c r="H92" t="n">
         <v>72.7</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.269733106189665</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>1761</v>
       </c>
       <c r="F93" t="n">
         <v>77.71599999999999</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003691688530052477</v>
+      </c>
       <c r="H93" t="n">
         <v>73.3</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3103953147877013</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>10.01666666666667</v>
+      </c>
       <c r="E94" t="n">
         <v>1366</v>
       </c>
       <c r="F94" t="n">
         <v>78.17</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003678823298981575</v>
+      </c>
       <c r="H94" t="n">
         <v>73.59999999999999</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3490701001430615</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>10.43333333333333</v>
+      </c>
       <c r="E95" t="n">
         <v>1398</v>
       </c>
       <c r="F95" t="n">
         <v>78.624</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003665958067910673</v>
+      </c>
       <c r="H95" t="n">
         <v>74</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.3524656426839127</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>10.85</v>
+      </c>
       <c r="E96" t="n">
         <v>1237</v>
       </c>
       <c r="F96" t="n">
         <v>78.925</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003653092836839771</v>
+      </c>
       <c r="H96" t="n">
         <v>74.40000000000001</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3068683049779458</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>11.26666666666667</v>
+      </c>
       <c r="E97" t="n">
         <v>1587</v>
       </c>
       <c r="F97" t="n">
         <v>79.001</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003640227605768869</v>
+      </c>
       <c r="H97" t="n">
         <v>74.59999999999999</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3355555555555556</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>11.68333333333333</v>
+      </c>
       <c r="E98" t="n">
         <v>1350</v>
       </c>
       <c r="F98" t="n">
         <v>79.001</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003627362374697967</v>
+      </c>
       <c r="H98" t="n">
         <v>74.7</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.3863636363636364</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>12.1</v>
+      </c>
       <c r="E99" t="n">
         <v>1188</v>
       </c>
       <c r="F99" t="n">
         <v>79.38</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003614497143627065</v>
+      </c>
       <c r="H99" t="n">
         <v>74.8</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4431137724550898</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>12.51666666666667</v>
+      </c>
       <c r="E100" t="n">
         <v>1169</v>
       </c>
       <c r="F100" t="n">
         <v>79.455</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003601631912556163</v>
+      </c>
       <c r="H100" t="n">
         <v>74.90000000000001</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.4816625916870416</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>12.93333333333333</v>
+      </c>
       <c r="E101" t="n">
         <v>818</v>
       </c>
       <c r="F101" t="n">
         <v>79.98399999999999</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.00358876668148526</v>
+      </c>
       <c r="H101" t="n">
         <v>75</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.3710302091402014</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>13.35</v>
+      </c>
       <c r="E102" t="n">
         <v>1291</v>
       </c>
       <c r="F102" t="n">
         <v>80.13500000000001</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003575901450414358</v>
+      </c>
       <c r="H102" t="n">
         <v>75.3</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3069069069069069</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>13.76666666666667</v>
+      </c>
       <c r="E103" t="n">
         <v>1665</v>
       </c>
       <c r="F103" t="n">
         <v>80.06</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003563036219343456</v>
+      </c>
       <c r="H103" t="n">
         <v>75.3</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2493028443948689</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>14.18333333333333</v>
+      </c>
       <c r="E104" t="n">
         <v>1793</v>
       </c>
       <c r="F104" t="n">
         <v>80.438</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003550170988272554</v>
+      </c>
       <c r="H104" t="n">
         <v>75.40000000000001</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>105.26</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H273" t="n">
         <v>104.1</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.82</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H274" t="n">
         <v>104.3</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.93</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H275" t="n">
         <v>104.5</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.92</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H276" t="n">
         <v>104.7</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>108.69</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H277" t="n">
         <v>104.9</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>109.58</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H278" t="n">
         <v>105.1</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>110.11</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H279" t="n">
         <v>105.3</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>109.69</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H280" t="n">
         <v>105.3</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>110.02</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H281" t="n">
         <v>105.2</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>110.34</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H282" t="n">
         <v>104.9</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>110.28</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H283" t="n">
         <v>104</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>23.8</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>110.24</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H284" t="n">
         <v>102.3</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.89</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001606483976617885</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
